--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B99E9C-89E9-44A5-B35E-220AF829384C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C93AEB-EDCC-4C49-A292-C71A41EAF32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -97,15 +97,14 @@
 change things if needed</t>
   </si>
   <si>
-    <t>Test the final, get feedback, solve potential flows and
-change things if needed</t>
-  </si>
-  <si>
     <t>Week 15</t>
   </si>
   <si>
     <t>Implement various trigger mechanisms and needed
 features</t>
+  </si>
+  <si>
+    <t>Test the final product, get feedback, solve potential flows and change things if needed</t>
   </si>
 </sst>
 </file>
@@ -605,7 +604,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +664,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>10</v>
@@ -737,10 +736,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C93AEB-EDCC-4C49-A292-C71A41EAF32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DBD5EB-738F-46BA-A54C-9853E82DEF73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -36,10 +36,6 @@
     <t>Game plan &amp; familiarize with new work station</t>
   </si>
   <si>
-    <t>Set up git, create project with basic scene, familirize with 
-Unity Steam VR implementation</t>
-  </si>
-  <si>
     <t>Milestones</t>
   </si>
   <si>
@@ -105,6 +101,10 @@
   </si>
   <si>
     <t>Test the final product, get feedback, solve potential flows and change things if needed</t>
+  </si>
+  <si>
+    <t>Set up git, create project with basic scene, familirize with 
+Unity Steam VR implementation, implement grabbing</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,10 +700,10 @@
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,10 +736,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DBD5EB-738F-46BA-A54C-9853E82DEF73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CBAE1-A806-4681-964E-28360F7A834B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Week 03</t>
   </si>
   <si>
-    <t>Implement and test Infinadeck with Unity (need 2 person)</t>
-  </si>
-  <si>
     <t>Week 03-06</t>
   </si>
   <si>
@@ -105,6 +102,10 @@
   <si>
     <t>Set up git, create project with basic scene, familirize with 
 Unity Steam VR implementation, implement grabbing</t>
+  </si>
+  <si>
+    <t>Implement and test Infinadeck with Unity (need 2 person)
+&amp; change inputs to walk with controllers</t>
   </si>
 </sst>
 </file>
@@ -604,7 +605,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -664,10 +665,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,10 +677,10 @@
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,10 +689,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,10 +701,10 @@
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,10 +713,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,10 +725,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,10 +737,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolan\Documents\EPFL\Semester_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CBAE1-A806-4681-964E-28360F7A834B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72841A00-6A94-44E6-B9F5-228CAEA0A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,24 +68,15 @@
 the player with walking with the infinadeck, test it and solve potential flows</t>
   </si>
   <si>
-    <t>Week 08-10</t>
-  </si>
-  <si>
     <t>Create all the levels with their respective puzzles (game
 design will come later), add the voice off v.1 in the levels
 and the clue button</t>
   </si>
   <si>
-    <t>Week 11</t>
-  </si>
-  <si>
     <t>Make game design (import/create assets), record the voice
 off in a recording studio and implement it in the game</t>
   </si>
   <si>
-    <t>Week 12-14</t>
-  </si>
-  <si>
     <t>Test the levels, get feedback, solve potential flows and
 change things if needed</t>
   </si>
@@ -106,6 +97,15 @@
   <si>
     <t>Implement and test Infinadeck with Unity (need 2 person)
 &amp; change inputs to walk with controllers</t>
+  </si>
+  <si>
+    <t>Week 08-11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13-14</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,10 +605,10 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="54.7109375" customWidth="1"/>
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>8</v>
@@ -701,10 +701,10 @@
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,10 +725,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolan\Documents\EPFL\Semester_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72841A00-6A94-44E6-B9F5-228CAEA0A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390730C-E5A1-4952-848B-A5C2A36FAA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -91,10 +91,6 @@
     <t>Test the final product, get feedback, solve potential flows and change things if needed</t>
   </si>
   <si>
-    <t>Set up git, create project with basic scene, familirize with 
-Unity Steam VR implementation, implement grabbing</t>
-  </si>
-  <si>
     <t>Implement and test Infinadeck with Unity (need 2 person)
 &amp; change inputs to walk with controllers</t>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>Week 13-14</t>
+  </si>
+  <si>
+    <t>Set up git, create project with basic scene, familirize with 
+Unity Steam VR implementation, implement grabbing and throwing</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,10 +605,10 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="54.7109375" customWidth="1"/>
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -704,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390730C-E5A1-4952-848B-A5C2A36FAA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2B6D0-DF31-4672-90D6-632A730938E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -64,10 +64,6 @@
     <t>Week 07</t>
   </si>
   <si>
-    <t>Create tutorial level to explain the input and familiarize
-the player with walking with the infinadeck, test it and solve potential flows</t>
-  </si>
-  <si>
     <t>Create all the levels with their respective puzzles (game
 design will come later), add the voice off v.1 in the levels
 and the clue button</t>
@@ -88,9 +84,6 @@
 features</t>
   </si>
   <si>
-    <t>Test the final product, get feedback, solve potential flows and change things if needed</t>
-  </si>
-  <si>
     <t>Implement and test Infinadeck with Unity (need 2 person)
 &amp; change inputs to walk with controllers</t>
   </si>
@@ -106,6 +99,13 @@
   <si>
     <t>Set up git, create project with basic scene, familirize with 
 Unity Steam VR implementation, implement grabbing and throwing</t>
+  </si>
+  <si>
+    <t>Create tutorial level to explain the input and familiarize
+the player with walking with the infinadeck, test it and solve potential flows and presentation</t>
+  </si>
+  <si>
+    <t>Test the final product, get feedback, solve potential flows and change things if needed report and presentation</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>8</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -701,10 +701,10 @@
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,10 +725,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2B6D0-DF31-4672-90D6-632A730938E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD490E-EDDA-4B06-8B31-8E6F0CCF4438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Week</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Test the final product, get feedback, solve potential flows and change things if needed report and presentation</t>
+  </si>
+  <si>
+    <t>Test Infinadeck</t>
   </si>
 </sst>
 </file>
@@ -240,12 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,9 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,6 +286,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,179 +607,181 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="11" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="9"/>
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="9"/>
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="9"/>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="9"/>
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="9"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="9"/>
+      <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="4:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD490E-EDDA-4B06-8B31-8E6F0CCF4438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DE76A-3F2C-4CF1-9044-DC638A0360B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -108,7 +108,8 @@
     <t>Test the final product, get feedback, solve potential flows and change things if needed report and presentation</t>
   </si>
   <si>
-    <t>Test Infinadeck</t>
+    <t>Test Infinadeck, in game walking with infinadeck, added
+buttons, clue button with evolving clues, respawning objects, move using controllers</t>
   </si>
 </sst>
 </file>
@@ -288,7 +289,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +608,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DE76A-3F2C-4CF1-9044-DC638A0360B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268CCD76-866C-49FF-871B-528A4AD49C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   </si>
   <si>
     <t>Test Infinadeck, in game walking with infinadeck, added
-buttons, clue button with evolving clues, respawning objects, move using controllers</t>
+buttons, clue button with evolving clues, respawning objects, move using controllers, doors V1</t>
   </si>
 </sst>
 </file>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268CCD76-866C-49FF-871B-528A4AD49C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50063A74-828A-4D7F-9782-205BF74CA055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t>Test Infinadeck, in game walking with infinadeck, added
 buttons, clue button with evolving clues, respawning objects, move using controllers, doors V1</t>
+  </si>
+  <si>
+    <t>Finish door, create locks with specific key to unlock</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,9 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="13" t="s">
         <v>9</v>
       </c>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50063A74-828A-4D7F-9782-205BF74CA055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C9AC3-C2C6-4529-8392-648C08CE89B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 buttons, clue button with evolving clues, respawning objects, move using controllers, doors V1</t>
   </si>
   <si>
-    <t>Finish door, create locks with specific key to unlock</t>
+    <t>Finish door, create locks with specific key to unlock, padlock with code to trigger event, cabinet with drawer as a basket, create basic scene with everything</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="13" t="s">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C9AC3-C2C6-4529-8392-648C08CE89B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5357BCA-D246-4EF5-BE41-649476E1DD1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -80,10 +80,6 @@
     <t>Week 15</t>
   </si>
   <si>
-    <t>Implement various trigger mechanisms and needed
-features</t>
-  </si>
-  <si>
     <t>Implement and test Infinadeck with Unity (need 2 person)
 &amp; change inputs to walk with controllers</t>
   </si>
@@ -113,6 +109,10 @@
   </si>
   <si>
     <t>Finish door, create locks with specific key to unlock, padlock with code to trigger event, cabinet with drawer as a basket, create basic scene with everything</t>
+  </si>
+  <si>
+    <t>Implement various trigger mechanisms and needed
+features, writing with voice off, first design</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>7</v>
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>9</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>11</v>
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>15</v>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5357BCA-D246-4EF5-BE41-649476E1DD1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217FA18-9B35-4163-B7ED-B4974A97D5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>Implement various trigger mechanisms and needed
 features, writing with voice off, first design</t>
+  </si>
+  <si>
+    <t>Correct drawers &amp; doors, create own key, start tutorial and story writing</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,12 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -292,6 +289,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,14 +617,14 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,7 +633,7 @@
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -641,10 +647,10 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -658,7 +664,7 @@
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -669,10 +675,10 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -686,7 +692,7 @@
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -697,8 +703,10 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -709,8 +717,8 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="5"/>
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -721,8 +729,8 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="5"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -733,8 +741,8 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="5"/>
+      <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -745,8 +753,8 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="5"/>
+      <c r="G11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -757,37 +765,37 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>12</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217FA18-9B35-4163-B7ED-B4974A97D5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB2088-64AB-4BE5-B880-6A3A47D5CF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 features, writing with voice off, first design</t>
   </si>
   <si>
-    <t>Correct drawers &amp; doors, create own key, start tutorial and story writing</t>
+    <t>Correct drawers &amp; doors, create own key, start tutorial and story writing, improve lock and keys, key animation</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB2088-64AB-4BE5-B880-6A3A47D5CF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E026A-CDE7-4579-8B05-24D9C1D32488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E026A-CDE7-4579-8B05-24D9C1D32488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FF03D-BA12-471C-A695-574E3329B91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Week</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Correct drawers &amp; doors, create own key, start tutorial and story writing, improve lock and keys, key animation</t>
+  </si>
+  <si>
+    <t>Add textures to tutorial and polish it. New puzzle for first level and midterm presentation</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +720,9 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>12</v>
       </c>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FF03D-BA12-471C-A695-574E3329B91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959A07C-3C2A-44CE-9AE4-5F2EB87E9B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -119,16 +119,36 @@
   </si>
   <si>
     <t>Add textures to tutorial and polish it. New puzzle for first level and midterm presentation</t>
+  </si>
+  <si>
+    <t>Midterm presentation and assets for labyrinth and sounds</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/audio/sound-fx/universal-sound-fx-17256#description</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/textures-materials/nature/hedge-labyrinth-package-81576</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/audio/sound-fx/complete-survival-game-sound-kit-159941</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,8 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5DFBA7-6C3A-4250-AB84-E9C4FD0BC71F}">
   <dimension ref="D1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +759,9 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
@@ -771,12 +798,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="5"/>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>11</v>
       </c>
       <c r="E13" s="5"/>
+      <c r="G13" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
@@ -789,6 +822,9 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
+      <c r="G15" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
@@ -803,6 +839,11 @@
       <c r="E17" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{8E4E0FD0-1AFC-40F4-B129-EF08F0893163}"/>
+    <hyperlink ref="G12" r:id="rId2" location="description" xr:uid="{EBD94CF7-6669-44E5-ACFC-DF0FB0DFB393}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{2F3D9F25-4B1D-439E-8623-7B6679539507}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959A07C-3C2A-44CE-9AE4-5F2EB87E9B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA5BCB-4B58-4FB7-8A20-0739C437559C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/audio/sound-fx/complete-survival-game-sound-kit-159941</t>
+  </si>
+  <si>
+    <t>Objects can't fall to the ground, level 1 design first draft, creation of level 1 puzzles</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,9 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
@@ -785,7 +790,6 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="5"/>
       <c r="G11" s="12" t="s">
         <v>22</v>
       </c>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA5BCB-4B58-4FB7-8A20-0739C437559C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FFD29-01E2-4BC0-9E94-A9B24FB2EEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Objects can't fall to the ground, level 1 design first draft, creation of level 1 puzzles</t>
+  </si>
+  <si>
+    <t>Level 1 puzzles done</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,12 +275,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -647,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5DFBA7-6C3A-4250-AB84-E9C4FD0BC71F}">
   <dimension ref="D1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +811,9 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>22</v>
       </c>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolan\Documents\EPFL\Semester_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FFD29-01E2-4BC0-9E94-A9B24FB2EEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A891C824-0C2A-4333-8B32-FD53F811F434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Week</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Level 1 puzzles done</t>
+  </si>
+  <si>
+    <t>Level 1 testing and feedback, level 2 (labyrinth) puzzles done</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5DFBA7-6C3A-4250-AB84-E9C4FD0BC71F}">
   <dimension ref="D1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +828,9 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>29</v>
       </c>

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolan\Documents\EPFL\Semester_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A891C824-0C2A-4333-8B32-FD53F811F434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34452C30-1ACD-49BA-A496-185354538EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Week</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Level 1 testing and feedback, level 2 (labyrinth) puzzles done</t>
+  </si>
+  <si>
+    <t>Compas</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +867,9 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
+      <c r="G16" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="4:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34452C30-1ACD-49BA-A496-185354538EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9B9A4-1C3A-4267-B188-ED66E3323695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <t>Level 1 testing and feedback, level 2 (labyrinth) puzzles done</t>
   </si>
   <si>
-    <t>Compas</t>
+    <t>Level 2 debugging and level 3 almost complete.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,9 @@
       <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="17" t="s">
         <v>31</v>
       </c>
@@ -867,9 +869,6 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="G16" s="9" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="17" spans="4:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9B9A4-1C3A-4267-B188-ED66E3323695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9D69D-5DF8-4ED1-8CE2-A72B6071D83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Week</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Level 2 debugging and level 3 almost complete.</t>
+  </si>
+  <si>
+    <t>Finish level 3, game testing and bug fixing</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +856,9 @@
       <c r="D14" s="2">
         <v>12</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="4:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2">

--- a/Milestones and work done.xlsx
+++ b/Milestones and work done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TP\Documents\Nolan Chappuis\VR_GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9D69D-5DF8-4ED1-8CE2-A72B6071D83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5460A-C055-4B80-9472-21D9D9A3706E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D227EA-EE83-4B9B-A096-469D711968A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Finish level 3, game testing and bug fixing</t>
+  </si>
+  <si>
+    <t>Bugs fixing, testing with friends and tweaking game, beautify game, added SFX and narrator for tuto and level 1</t>
+  </si>
+  <si>
+    <t>Finish SFX, add narrator for level 2 and 3, proper engame.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
   <dimension ref="D1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +870,9 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>30</v>
       </c>
@@ -873,7 +881,9 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="4:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3">
